--- a/markdown_generator/pubs.xlsx
+++ b/markdown_generator/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glyng/code/gdl1314.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35A8018-10D7-8D4A-A790-D21806A84345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBE3F79-1892-AC4F-8AD9-F57B1F80ADBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14400" xr2:uid="{DE440F00-E26D-1548-82D1-33E119D965A6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>pub_date</t>
   </si>
@@ -72,14 +72,60 @@
   </si>
   <si>
     <t>https://dx.doi.org/10.1016/j.physd.2004.01.036</t>
+  </si>
+  <si>
+    <t>One-Dimensional Stability of Viscous Strong Detonation Waves</t>
+  </si>
+  <si>
+    <t>Archive for Rational Mechanics and Analysis</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Building on Evans-function techniques developed to study the stability of viscous shocks, we examine the stability of strong-detonation-wave solutions of the Navier-Stokes equations for reacting gas. The primary result, following [1, 17], is the calculation of a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stability index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> whose sign determines a necessary condition for spectral stability. We show that for an ideal gas this index can be evaluated in the Zeldovich-von Neumann-Döring limit of vanishing dissipative effects. Moreover, when the heat of reaction is sufficiently small, we prove that strong detonations are spectrally stable provided that the underlying shock is stable. Finally, for completeness, we include the calculation of the stability index for a viscous shock solution of the Navier-Stokes equations for a nonreacting gas.</t>
+    </r>
+  </si>
+  <si>
+    <t>Gregory Lyng &amp; Kevin Zumbrun, One-dimensional stability of viscous strong detonation waves. Archive for Rational Mechanics and Analysis, 173 (2004): 213–277.</t>
+  </si>
+  <si>
+    <t>https://dx.doi.org/10.1007/s00205-004-0317-6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -427,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA33E8E0-0481-A641-A47B-DA1BFBE0C4BE}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,6 +531,29 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3" spans="1:7" ht="272" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>38118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/markdown_generator/pubs.xlsx
+++ b/markdown_generator/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glyng/code/gdl1314.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBE3F79-1892-AC4F-8AD9-F57B1F80ADBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FFDC44-D9A2-6447-A959-C133A29319CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14400" xr2:uid="{DE440F00-E26D-1548-82D1-33E119D965A6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>pub_date</t>
   </si>
@@ -111,13 +111,59 @@
   <si>
     <t>https://dx.doi.org/10.1007/s00205-004-0317-6</t>
   </si>
+  <si>
+    <r>
+      <t>Helge Kristian Jenssen, Gregory Lyng, Mark Williams, Equivalence of low frequency stability conditions for multidimensional detonations in three models of combustion,   Indiana Univ. Math. J.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>54</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (2005),  1-64.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://dx.doi.org/10.1512/iumj.2005.54.2685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indiana University Mathematics Journal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We use the classical normal mode approach of hydrodynamic stability theory to define stability determinants (Evans functions) for multidimensional strong detonations in three commonly studied models of combustion: the full reactive Navier-Stokes ($\RNS$) model, and the simpler Zeldovich-von Neumann-D\"oring ($\ZND$) and Chapman-Jouguet (CJ) models. The determinants are functions of frequencies $(\lambda,\eta)$, where $\lambda$ is a complex variable dual to the time variable, and $\eta\in\bR^{d-1}$ is dual to the transverse spatial variables. The zeros of these determinants in $\Re\lambda&gt;0$ correspond to perturbations that grow exponentially with time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equivalence of low frequency stability conditions for multidimensional detonations in three models of combustion </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -128,6 +174,14 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,17 +204,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -473,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA33E8E0-0481-A641-A47B-DA1BFBE0C4BE}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -554,7 +611,30 @@
         <v>16</v>
       </c>
     </row>
+    <row r="4" spans="1:7" ht="238" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{D0A0C61E-15DD-FA43-99D5-34403B9ED611}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/markdown_generator/pubs.xlsx
+++ b/markdown_generator/pubs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glyng/code/gdl1314.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FFDC44-D9A2-6447-A959-C133A29319CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8458712C-4295-7840-8031-BA4AD0EE5BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14400" xr2:uid="{DE440F00-E26D-1548-82D1-33E119D965A6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>pub_date</t>
   </si>
@@ -148,6 +148,21 @@
   </si>
   <si>
     <t xml:space="preserve">Equivalence of low frequency stability conditions for multidimensional detonations in three models of combustion </t>
+  </si>
+  <si>
+    <t>Handbook of Mathematical Fluid Dynamics III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H. Kristian Jenssen &amp; Gregory Lyng, Evaluation of the Lopatinski condition for gas dynamics, appendix to K. Zumbrun, Stability of large-amplitude shock waves of compressible Navier–Stokes equations, Handbook of Mathematical Fluid Dynamics III, S. Friedlander &amp; D. Serre eds., North-Holland, Amsterdam, 2004. </t>
+  </si>
+  <si>
+    <t>Evaluation of the Lopatinski condition for gas dynamics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The purpose of this appendix is to calculate the Lopatinski determinant, or “stability function,” for the Euler equations of compressible gas dynamics. We describe two approaches to this problem. In the first we use a change of variables to simplify the computation. In the second method we take advantage of the Galilean invariance of the Euler equations and exploit a relationship between the eigenvectors of a particular pair of matrices. As a preliminary step for the first technique, we discuss how the Lopatinski determinant behaves under a change of coordinates. </t>
+  </si>
+  <si>
+    <t>https://shop.elsevier.com/books/handbook-of-mathematical-fluid-dynamics/friedlander/978-0-444-51556-8</t>
   </si>
 </sst>
 </file>
@@ -530,26 +545,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA33E8E0-0481-A641-A47B-DA1BFBE0C4BE}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="27.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
     <col min="5" max="5" width="47.5" customWidth="1"/>
+    <col min="6" max="6" width="36.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -558,7 +577,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -569,10 +588,10 @@
       <c r="A2" s="2">
         <v>38086</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -581,7 +600,7 @@
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G2" t="s">
@@ -592,10 +611,10 @@
       <c r="A3" s="2">
         <v>38118</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -604,36 +623,62 @@
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="238" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="4" spans="1:7" ht="204" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>38266</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="238" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>38206</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" xr:uid="{D0A0C61E-15DD-FA43-99D5-34403B9ED611}"/>
+    <hyperlink ref="G5" r:id="rId1" xr:uid="{D0A0C61E-15DD-FA43-99D5-34403B9ED611}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/markdown_generator/pubs.xlsx
+++ b/markdown_generator/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glyng/code/gdl1314.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8458712C-4295-7840-8031-BA4AD0EE5BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C687851-2708-DA44-AB98-CE179E175DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14400" xr2:uid="{DE440F00-E26D-1548-82D1-33E119D965A6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>pub_date</t>
   </si>
@@ -112,8 +112,41 @@
     <t>https://dx.doi.org/10.1007/s00205-004-0317-6</t>
   </si>
   <si>
+    <t>https://dx.doi.org/10.1512/iumj.2005.54.2685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indiana University Mathematics Journal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equivalence of low frequency stability conditions for multidimensional detonations in three models of combustion </t>
+  </si>
+  <si>
+    <t>Handbook of Mathematical Fluid Dynamics III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H. Kristian Jenssen &amp; Gregory Lyng, Evaluation of the Lopatinski condition for gas dynamics, appendix to K. Zumbrun, Stability of large-amplitude shock waves of compressible Navier–Stokes equations, Handbook of Mathematical Fluid Dynamics III, S. Friedlander &amp; D. Serre eds., North-Holland, Amsterdam, 2004. </t>
+  </si>
+  <si>
+    <t>Evaluation of the Lopatinski condition for gas dynamics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The purpose of this appendix is to calculate the Lopatinski determinant, or “stability function,” for the Euler equations of compressible gas dynamics. We describe two approaches to this problem. In the first we use a change of variables to simplify the computation. In the second method we take advantage of the Galilean invariance of the Euler equations and exploit a relationship between the eigenvectors of a particular pair of matrices. As a preliminary step for the first technique, we discuss how the Lopatinski determinant behaves under a change of coordinates. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We use the classical normal mode approach of hydrodynamic stability theory to define stability determinants (Evans functions) for multidimensional strong detonations in three commonly studied models of combustion: the full reactive Navier-Stokes (RNS) model, and the simpler Zeldovich-von Neumann-D\"oring (ZND) and Chapman-Jouguet (CJ) models. The determinants are functions of frequencies $(\lambda,\eta)$, where $\lambda$ is a complex variable dual to the time variable, and $\eta\in\mathbb{R}^{d-1}$ is dual to the transverse spatial variables. The zeros of these determinants in $\Re\lambda&gt;0$ correspond to perturbations that grow exponentially with time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">H. Kristian Jenssen, Gregory Lyng, &amp; Mark Williams, Low frequency stability of planar multi-D detonations, Oberwolfach Reports, Volume 1, Issue 2, 2004, report No. 18/2004, 927–928. </t>
+  </si>
+  <si>
+    <t>Oberwolfach Reports</t>
+  </si>
+  <si>
+    <t>Low frequency stability of planar multi-D detonations</t>
+  </si>
+  <si>
     <r>
-      <t>Helge Kristian Jenssen, Gregory Lyng, Mark Williams, Equivalence of low frequency stability conditions for multidimensional detonations in three models of combustion,   Indiana Univ. Math. J.  </t>
+      <t>Helge Kristian Jenssen, Gregory Lyng, Mark Williams, Equivalence of low frequency stability conditions for multidimensional detonations in three models of combustion,   *Indiana Univ. Math. J.*  **</t>
     </r>
     <r>
       <rPr>
@@ -124,7 +157,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>54</t>
+      <t>54**</t>
     </r>
     <r>
       <rPr>
@@ -136,33 +169,6 @@
       </rPr>
       <t xml:space="preserve"> (2005),  1-64.</t>
     </r>
-  </si>
-  <si>
-    <t>https://dx.doi.org/10.1512/iumj.2005.54.2685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indiana University Mathematics Journal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">We use the classical normal mode approach of hydrodynamic stability theory to define stability determinants (Evans functions) for multidimensional strong detonations in three commonly studied models of combustion: the full reactive Navier-Stokes ($\RNS$) model, and the simpler Zeldovich-von Neumann-D\"oring ($\ZND$) and Chapman-Jouguet (CJ) models. The determinants are functions of frequencies $(\lambda,\eta)$, where $\lambda$ is a complex variable dual to the time variable, and $\eta\in\bR^{d-1}$ is dual to the transverse spatial variables. The zeros of these determinants in $\Re\lambda&gt;0$ correspond to perturbations that grow exponentially with time. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equivalence of low frequency stability conditions for multidimensional detonations in three models of combustion </t>
-  </si>
-  <si>
-    <t>Handbook of Mathematical Fluid Dynamics III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H. Kristian Jenssen &amp; Gregory Lyng, Evaluation of the Lopatinski condition for gas dynamics, appendix to K. Zumbrun, Stability of large-amplitude shock waves of compressible Navier–Stokes equations, Handbook of Mathematical Fluid Dynamics III, S. Friedlander &amp; D. Serre eds., North-Holland, Amsterdam, 2004. </t>
-  </si>
-  <si>
-    <t>Evaluation of the Lopatinski condition for gas dynamics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The purpose of this appendix is to calculate the Lopatinski determinant, or “stability function,” for the Euler equations of compressible gas dynamics. We describe two approaches to this problem. In the first we use a change of variables to simplify the computation. In the second method we take advantage of the Galilean invariance of the Euler equations and exploit a relationship between the eigenvectors of a particular pair of matrices. As a preliminary step for the first technique, we discuss how the Lopatinski determinant behaves under a change of coordinates. </t>
-  </si>
-  <si>
-    <t>https://shop.elsevier.com/books/handbook-of-mathematical-fluid-dynamics/friedlander/978-0-444-51556-8</t>
   </si>
 </sst>
 </file>
@@ -545,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA33E8E0-0481-A641-A47B-DA1BFBE0C4BE}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -556,7 +562,7 @@
     <col min="2" max="2" width="27.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="28.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
-    <col min="5" max="5" width="47.5" customWidth="1"/>
+    <col min="5" max="5" width="47.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="36.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
@@ -574,7 +580,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -635,45 +641,60 @@
         <v>38266</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="238" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>38206</v>
+        <v>38571</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>18</v>
+    </row>
+    <row r="6" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>38081</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/markdown_generator/pubs.xlsx
+++ b/markdown_generator/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glyng/code/gdl1314.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C687851-2708-DA44-AB98-CE179E175DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEC1BC4-7028-534A-B98E-6AB03EABF5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14400" xr2:uid="{DE440F00-E26D-1548-82D1-33E119D965A6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>pub_date</t>
   </si>
@@ -146,7 +146,7 @@
   </si>
   <si>
     <r>
-      <t>Helge Kristian Jenssen, Gregory Lyng, Mark Williams, Equivalence of low frequency stability conditions for multidimensional detonations in three models of combustion,   *Indiana Univ. Math. J.*  **</t>
+      <t>Helge Kristian Jenssen, Gregory Lyng, Mark Williams, Equivalence of low frequency stability conditions for multidimensional detonations in three models of combustion,  Indiana Univ. Math. J. </t>
     </r>
     <r>
       <rPr>
@@ -157,7 +157,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>54**</t>
+      <t>54</t>
     </r>
     <r>
       <rPr>
@@ -169,13 +169,367 @@
       </rPr>
       <t xml:space="preserve"> (2005),  1-64.</t>
     </r>
+  </si>
+  <si>
+    <t>Gregory Lyng &amp; Peter D. Miller, The N-soliton of the focusing nonlinear Schrödinger equation for N large. Communications on Pure and Applied Mathematics, 60 (2007): 951–1026.</t>
+  </si>
+  <si>
+    <t>The N-soliton of the focusing nonlinear Schrödinger equation for N large</t>
+  </si>
+  <si>
+    <t>Communications on Pure and Applied Mathematics</t>
+  </si>
+  <si>
+    <r>
+      <t>We present a detailed analysis of the solution of the focusing nonlinear Schrödinger equation with initial condition $\psi(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 0) = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> \sech(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)$ in the limit $</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N\to\infty$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. We begin by presenting new and more accurate numerical reconstructions of the $</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-soliton by inverse scattering (numerical linear algebra) for $</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 5, 10, 20$, and $40$. We then recast the inverse-scattering problem as a Riemann-Hilbert problem and provide a rigorous asymptotic analysis of this problem in the large-$</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> limit. For those $(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x, t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)$ where results have been obtained by other authors, we improve the error estimates from $</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N^{</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−1/3}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)$ to $</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N^{</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−1}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)$. We also analyze the Fourier power spectrum in this regime and relate the results to the optical phenomenon of supercontinuum generation. We then study the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-soliton for values of $(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x, t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)$ where analysis has not been carried out before, and we uncover new phenomena. The main discovery of this paper is the mathematical mechanism for a secondary caustic (phase transition), which turns out to differ from the mechanism that generates the primary caustic. The mechanism for the generation of the secondary caustic depends essentially on the discrete nature of the spectrum of the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-soliton. Moreover, these results evidently cannot be recovered from an analysis of an ostensibly similar “condensed-pole” Riemann-Hilbert problem.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://dx.doi.org/10.1002/cpa.20162</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -203,6 +557,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -551,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA33E8E0-0481-A641-A47B-DA1BFBE0C4BE}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -697,6 +1059,29 @@
         <v>27</v>
       </c>
     </row>
+    <row r="7" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>38999</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" xr:uid="{D0A0C61E-15DD-FA43-99D5-34403B9ED611}"/>

--- a/markdown_generator/pubs.xlsx
+++ b/markdown_generator/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glyng/code/gdl1314.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEC1BC4-7028-534A-B98E-6AB03EABF5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF7F004-6E29-6D44-BB2F-983D9A2A4171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14400" xr2:uid="{DE440F00-E26D-1548-82D1-33E119D965A6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>pub_date</t>
   </si>
@@ -523,6 +523,21 @@
   </si>
   <si>
     <t>https://dx.doi.org/10.1002/cpa.20162</t>
+  </si>
+  <si>
+    <t>Nicola Costanzino, H. Kristian Jenssen, Gregory Lyng, &amp; Mark Williams, Existence and stability of curved multidimensional detonation fronts. Indiana University Mathematics Journal, 56 (2007): 1405–1462.</t>
+  </si>
+  <si>
+    <t>Existence and stability of curved multidimensional detonation fronts</t>
+  </si>
+  <si>
+    <t>https://dx.doi.org/10.1512/iumj.2007.56.2972</t>
+  </si>
+  <si>
+    <t>The rigorous study of spectral stability for ZND detonations was begun by J.J. Erpenbeck in [9]. He used a normal mode analysis to define a stability function $V (\lambda, \eta)$, whose zeros in $\Re\lambda &gt; 0$ correspond to multidimensional perturbations of a steady planar profile that grow exponentially with time. In [11] he was able to prove that for large classes of steady ZND profiles, unstable zeros of $V$ always exist in the high frequency regime, even when the von Neumann shock, regarded as a gas dynamical shock, is uniformly stable in the sense (later) defined by Majda; subsequent numerical work has shown that unstable zeros usually exist in the medium frequency regime as well.
+In this paper we begin a rigorous study of the implications for non-linear stability of the spectral instabilities just described. We show that in spite of the existence of unstable zeros of $V$, one can prove the finite (but arbitrarily long) time existence of slightly curved, non-steady, multidimensional detonation fronts for ideal polytropic gases in both the ZND and Chapman-Jouguet models. In the ZND case we show that this nonlinear stability problem is actually governed by
+a different stability function, $\Delta_\mathrm{ZND}((\hat\lambdaλ, \hat\eta)$, which turns out to coincide with the high frequency limit of $V (\lambda, \eta)/|\lambda, \eta|$ in$\Re\hat\lambda &gt; 0$. Moreover, the above nonlinear stability result for ideal polytropic gases holds more generally in any situation where $\Delta_{\mathrm{ZND}}(\hat\lambda,\hat\eta)$ is bounded away
+from zero in $\Re\hat\lambda &gt; 0$. We also revisit the argument of [11] in order to simplify and complete some of the analysis in the proof of the main result there.</t>
   </si>
 </sst>
 </file>
@@ -913,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA33E8E0-0481-A641-A47B-DA1BFBE0C4BE}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1082,6 +1097,29 @@
         <v>33</v>
       </c>
     </row>
+    <row r="8" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>39223</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" xr:uid="{D0A0C61E-15DD-FA43-99D5-34403B9ED611}"/>

--- a/markdown_generator/pubs.xlsx
+++ b/markdown_generator/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glyng/code/gdl1314.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF7F004-6E29-6D44-BB2F-983D9A2A4171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE71713-9E67-344A-856F-F05570BB8595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14400" xr2:uid="{DE440F00-E26D-1548-82D1-33E119D965A6}"/>
   </bookViews>
@@ -133,9 +133,6 @@
     <t xml:space="preserve">The purpose of this appendix is to calculate the Lopatinski determinant, or “stability function,” for the Euler equations of compressible gas dynamics. We describe two approaches to this problem. In the first we use a change of variables to simplify the computation. In the second method we take advantage of the Galilean invariance of the Euler equations and exploit a relationship between the eigenvectors of a particular pair of matrices. As a preliminary step for the first technique, we discuss how the Lopatinski determinant behaves under a change of coordinates. </t>
   </si>
   <si>
-    <t xml:space="preserve">We use the classical normal mode approach of hydrodynamic stability theory to define stability determinants (Evans functions) for multidimensional strong detonations in three commonly studied models of combustion: the full reactive Navier-Stokes (RNS) model, and the simpler Zeldovich-von Neumann-D\"oring (ZND) and Chapman-Jouguet (CJ) models. The determinants are functions of frequencies $(\lambda,\eta)$, where $\lambda$ is a complex variable dual to the time variable, and $\eta\in\mathbb{R}^{d-1}$ is dual to the transverse spatial variables. The zeros of these determinants in $\Re\lambda&gt;0$ correspond to perturbations that grow exponentially with time. </t>
-  </si>
-  <si>
     <t xml:space="preserve">H. Kristian Jenssen, Gregory Lyng, &amp; Mark Williams, Low frequency stability of planar multi-D detonations, Oberwolfach Reports, Volume 1, Issue 2, 2004, report No. 18/2004, 927–928. </t>
   </si>
   <si>
@@ -178,348 +175,6 @@
   </si>
   <si>
     <t>Communications on Pure and Applied Mathematics</t>
-  </si>
-  <si>
-    <r>
-      <t>We present a detailed analysis of the solution of the focusing nonlinear Schrödinger equation with initial condition $\psi(</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 0) = </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> \sech(</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)$ in the limit $</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N\to\infty$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. We begin by presenting new and more accurate numerical reconstructions of the $</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-soliton by inverse scattering (numerical linear algebra) for $</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 5, 10, 20$, and $40$. We then recast the inverse-scattering problem as a Riemann-Hilbert problem and provide a rigorous asymptotic analysis of this problem in the large-$</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> limit. For those $(</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x, t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)$ where results have been obtained by other authors, we improve the error estimates from $</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N^{</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>−1/3}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)$ to $</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N^{</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>−1}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)$. We also analyze the Fourier power spectrum in this regime and relate the results to the optical phenomenon of supercontinuum generation. We then study the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-soliton for values of $(</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x, t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)$ where analysis has not been carried out before, and we uncover new phenomena. The main discovery of this paper is the mathematical mechanism for a secondary caustic (phase transition), which turns out to differ from the mechanism that generates the primary caustic. The mechanism for the generation of the secondary caustic depends essentially on the discrete nature of the spectrum of the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-soliton. Moreover, these results evidently cannot be recovered from an analysis of an ostensibly similar “condensed-pole” Riemann-Hilbert problem.</t>
-    </r>
   </si>
   <si>
     <t>https://dx.doi.org/10.1002/cpa.20162</t>
@@ -538,6 +193,351 @@
 In this paper we begin a rigorous study of the implications for non-linear stability of the spectral instabilities just described. We show that in spite of the existence of unstable zeros of $V$, one can prove the finite (but arbitrarily long) time existence of slightly curved, non-steady, multidimensional detonation fronts for ideal polytropic gases in both the ZND and Chapman-Jouguet models. In the ZND case we show that this nonlinear stability problem is actually governed by
 a different stability function, $\Delta_\mathrm{ZND}((\hat\lambdaλ, \hat\eta)$, which turns out to coincide with the high frequency limit of $V (\lambda, \eta)/|\lambda, \eta|$ in$\Re\hat\lambda &gt; 0$. Moreover, the above nonlinear stability result for ideal polytropic gases holds more generally in any situation where $\Delta_{\mathrm{ZND}}(\hat\lambda,\hat\eta)$ is bounded away
 from zero in $\Re\hat\lambda &gt; 0$. We also revisit the argument of [11] in order to simplify and complete some of the analysis in the proof of the main result there.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We use the classical normal mode approach of hydrodynamic stability theory to define stability determinants (Evans functions) for multidimensional strong detonations in three commonly studied models of combustion: the full reactive Navier-Stokes (RNS) model, and the simpler Zeldovich-von Neumann-Doering (ZND) and Chapman-Jouguet (CJ) models. The determinants are functions of frequencies $(\lambda,\eta)$, where $\lambda$ is a complex variable dual to the time variable, and $\eta\in\mathbb{R}^{d-1}$ is dual to the transverse spatial variables. The zeros of these determinants in $\Re\lambda&gt;0$ correspond to perturbations that grow exponentially with time. </t>
+  </si>
+  <si>
+    <r>
+      <t>We present a detailed analysis of the solution of the focusing nonlinear Schrödinger equation with initial condition $\psi(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 0) = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> \mathrm{sech}(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)$ in the limit $</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N\to\infty$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. We begin by presenting new and more accurate numerical reconstructions of the $</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-soliton by inverse scattering (numerical linear algebra) for $</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 5, 10, 20$, and $40$. We then recast the inverse-scattering problem as a Riemann-Hilbert problem and provide a rigorous asymptotic analysis of this problem in the large-$</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> limit. For those $(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x, t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)$ where results have been obtained by other authors, we improve the error estimates from $</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N^{</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−1/3}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)$ to $</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N^{</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−1}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)$. We also analyze the Fourier power spectrum in this regime and relate the results to the optical phenomenon of supercontinuum generation. We then study the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-soliton for values of $(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x, t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)$ where analysis has not been carried out before, and we uncover new phenomena. The main discovery of this paper is the mathematical mechanism for a secondary caustic (phase transition), which turns out to differ from the mechanism that generates the primary caustic. The mechanism for the generation of the secondary caustic depends essentially on the discrete nature of the spectrum of the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-soliton. Moreover, these results evidently cannot be recovered from an analysis of an ostensibly similar “condensed-pole” Riemann-Hilbert problem.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -930,7 +930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA33E8E0-0481-A641-A47B-DA1BFBE0C4BE}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1044,10 +1044,10 @@
         <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>19</v>
@@ -1061,17 +1061,17 @@
         <v>38081</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
@@ -1079,22 +1079,22 @@
         <v>38999</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
@@ -1102,22 +1102,22 @@
         <v>39223</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
         <v>34</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/markdown_generator/pubs.xlsx
+++ b/markdown_generator/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glyng/code/gdl1314.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE71713-9E67-344A-856F-F05570BB8595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC6DCC9-B917-5F45-B504-DA72D91BF879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14400" xr2:uid="{DE440F00-E26D-1548-82D1-33E119D965A6}"/>
   </bookViews>
@@ -189,355 +189,355 @@
     <t>https://dx.doi.org/10.1512/iumj.2007.56.2972</t>
   </si>
   <si>
-    <t>The rigorous study of spectral stability for ZND detonations was begun by J.J. Erpenbeck in [9]. He used a normal mode analysis to define a stability function $V (\lambda, \eta)$, whose zeros in $\Re\lambda &gt; 0$ correspond to multidimensional perturbations of a steady planar profile that grow exponentially with time. In [11] he was able to prove that for large classes of steady ZND profiles, unstable zeros of $V$ always exist in the high frequency regime, even when the von Neumann shock, regarded as a gas dynamical shock, is uniformly stable in the sense (later) defined by Majda; subsequent numerical work has shown that unstable zeros usually exist in the medium frequency regime as well.
+    <t xml:space="preserve">We use the classical normal mode approach of hydrodynamic stability theory to define stability determinants (Evans functions) for multidimensional strong detonations in three commonly studied models of combustion: the full reactive Navier-Stokes (RNS) model, and the simpler Zeldovich-von Neumann-Doering (ZND) and Chapman-Jouguet (CJ) models. The determinants are functions of frequencies $(\lambda,\eta)$, where $\lambda$ is a complex variable dual to the time variable, and $\eta\in\mathbb{R}^{d-1}$ is dual to the transverse spatial variables. The zeros of these determinants in $\Re\lambda&gt;0$ correspond to perturbations that grow exponentially with time. </t>
+  </si>
+  <si>
+    <r>
+      <t>We present a detailed analysis of the solution of the focusing nonlinear Schrödinger equation with initial condition $\psi(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 0) = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> \mathrm{sech}(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)$ in the limit $</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N\to\infty$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. We begin by presenting new and more accurate numerical reconstructions of the $</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-soliton by inverse scattering (numerical linear algebra) for $</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 5, 10, 20$, and $40$. We then recast the inverse-scattering problem as a Riemann-Hilbert problem and provide a rigorous asymptotic analysis of this problem in the large-$</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> limit. For those $(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x, t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)$ where results have been obtained by other authors, we improve the error estimates from $</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N^{</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−1/3}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)$ to $</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N^{</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−1}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)$. We also analyze the Fourier power spectrum in this regime and relate the results to the optical phenomenon of supercontinuum generation. We then study the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-soliton for values of $(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x, t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)$ where analysis has not been carried out before, and we uncover new phenomena. The main discovery of this paper is the mathematical mechanism for a secondary caustic (phase transition), which turns out to differ from the mechanism that generates the primary caustic. The mechanism for the generation of the secondary caustic depends essentially on the discrete nature of the spectrum of the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-soliton. Moreover, these results evidently cannot be recovered from an analysis of an ostensibly similar “condensed-pole” Riemann-Hilbert problem.</t>
+    </r>
+  </si>
+  <si>
+    <t>The rigorous study of spectral stability for ZND detonations was begun by J.J. Erpenbeck. He used a normal mode analysis to define a stability function $V (\lambda, \eta)$, whose zeros in $\Re\lambda &gt; 0$ correspond to multidimensional perturbations of a steady planar profile that grow exponentially with time. Later, he was able to prove that for large classes of steady ZND profiles, unstable zeros of $V$ always exist in the high-frequency regime, even when the von Neumann shock, regarded as a gas dynamical shock, is uniformly stable in the sense (later) defined by Majda; subsequent numerical work has shown that unstable zeros usually exist in the medium frequency regime as well.
 In this paper we begin a rigorous study of the implications for non-linear stability of the spectral instabilities just described. We show that in spite of the existence of unstable zeros of $V$, one can prove the finite (but arbitrarily long) time existence of slightly curved, non-steady, multidimensional detonation fronts for ideal polytropic gases in both the ZND and Chapman-Jouguet models. In the ZND case we show that this nonlinear stability problem is actually governed by
-a different stability function, $\Delta_\mathrm{ZND}((\hat\lambdaλ, \hat\eta)$, which turns out to coincide with the high frequency limit of $V (\lambda, \eta)/|\lambda, \eta|$ in$\Re\hat\lambda &gt; 0$. Moreover, the above nonlinear stability result for ideal polytropic gases holds more generally in any situation where $\Delta_{\mathrm{ZND}}(\hat\lambda,\hat\eta)$ is bounded away
-from zero in $\Re\hat\lambda &gt; 0$. We also revisit the argument of [11] in order to simplify and complete some of the analysis in the proof of the main result there.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We use the classical normal mode approach of hydrodynamic stability theory to define stability determinants (Evans functions) for multidimensional strong detonations in three commonly studied models of combustion: the full reactive Navier-Stokes (RNS) model, and the simpler Zeldovich-von Neumann-Doering (ZND) and Chapman-Jouguet (CJ) models. The determinants are functions of frequencies $(\lambda,\eta)$, where $\lambda$ is a complex variable dual to the time variable, and $\eta\in\mathbb{R}^{d-1}$ is dual to the transverse spatial variables. The zeros of these determinants in $\Re\lambda&gt;0$ correspond to perturbations that grow exponentially with time. </t>
-  </si>
-  <si>
-    <r>
-      <t>We present a detailed analysis of the solution of the focusing nonlinear Schrödinger equation with initial condition $\psi(</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 0) = </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> \mathrm{sech}(</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)$ in the limit $</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N\to\infty$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. We begin by presenting new and more accurate numerical reconstructions of the $</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-soliton by inverse scattering (numerical linear algebra) for $</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 5, 10, 20$, and $40$. We then recast the inverse-scattering problem as a Riemann-Hilbert problem and provide a rigorous asymptotic analysis of this problem in the large-$</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> limit. For those $(</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x, t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)$ where results have been obtained by other authors, we improve the error estimates from $</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N^{</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>−1/3}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)$ to $</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N^{</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>−1}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)$. We also analyze the Fourier power spectrum in this regime and relate the results to the optical phenomenon of supercontinuum generation. We then study the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-soliton for values of $(</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x, t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)$ where analysis has not been carried out before, and we uncover new phenomena. The main discovery of this paper is the mathematical mechanism for a secondary caustic (phase transition), which turns out to differ from the mechanism that generates the primary caustic. The mechanism for the generation of the secondary caustic depends essentially on the discrete nature of the spectrum of the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-soliton. Moreover, these results evidently cannot be recovered from an analysis of an ostensibly similar “condensed-pole” Riemann-Hilbert problem.</t>
-    </r>
+a different stability function, $\Delta_{\mathrm{ZND}}((\hat\lambdaλ, \hat\eta)$, which turns out to coincide with the high frequency limit of $V (\lambda, \eta)/|\lambda, \eta|$ in $\Re\hat\lambda &gt; 0$. Moreover, the above nonlinear stability result for ideal polytropic gases holds more generally in any situation where $\Delta_{\mathrm{ZND}}(\hat\lambda,\hat\eta)$ is bounded away
+from zero in $\Re\hat\lambda &gt; 0$. We also revisit Erpenbeck's arguments in order to simplify and complete some of the analysis in the proof of his main result.</t>
   </si>
 </sst>
 </file>
@@ -930,7 +930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA33E8E0-0481-A641-A47B-DA1BFBE0C4BE}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1044,7 +1044,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>27</v>
@@ -1085,7 +1085,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
@@ -1108,7 +1108,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>32</v>

--- a/markdown_generator/pubs.xlsx
+++ b/markdown_generator/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glyng/code/gdl1314.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC6DCC9-B917-5F45-B504-DA72D91BF879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905E20DA-3317-7C4D-ACB3-8F7B424B843E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14400" xr2:uid="{DE440F00-E26D-1548-82D1-33E119D965A6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>pub_date</t>
   </si>
@@ -538,6 +538,21 @@
 In this paper we begin a rigorous study of the implications for non-linear stability of the spectral instabilities just described. We show that in spite of the existence of unstable zeros of $V$, one can prove the finite (but arbitrarily long) time existence of slightly curved, non-steady, multidimensional detonation fronts for ideal polytropic gases in both the ZND and Chapman-Jouguet models. In the ZND case we show that this nonlinear stability problem is actually governed by
 a different stability function, $\Delta_{\mathrm{ZND}}((\hat\lambdaλ, \hat\eta)$, which turns out to coincide with the high frequency limit of $V (\lambda, \eta)/|\lambda, \eta|$ in $\Re\hat\lambda &gt; 0$. Moreover, the above nonlinear stability result for ideal polytropic gases holds more generally in any situation where $\Delta_{\mathrm{ZND}}(\hat\lambda,\hat\eta)$ is bounded away
 from zero in $\Re\hat\lambda &gt; 0$. We also revisit Erpenbeck's arguments in order to simplify and complete some of the analysis in the proof of his main result.</t>
+  </si>
+  <si>
+    <t>Gregory Lyng, Mohammadreza Raoofi, Benjamin Texier, &amp; Kevin Zumbrun, Pointwise Green function bounds and the stability of combustion waves. Journal of Differential Equations, 233 (2007): 654–698.</t>
+  </si>
+  <si>
+    <t>Journal of Differential Equations</t>
+  </si>
+  <si>
+    <t>Pointwise Green function bounds and the stability of combustion waves</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jde.2006.10.006</t>
+  </si>
+  <si>
+    <t>Generalizing similar results for viscous shock and relaxation waves, we establish sharp pointwise Green function bounds and linearized and nonlinear stability for traveling wave solutions of an abstract viscous combustion model including both Majda's model and the full reacting compressible Navier–Stokes equations with artificial viscosity with general multi-species reaction and reaction-dependent equation of state, under the necessary conditions of strong spectral stability, i.e., stable point spectrum of the linearized operator about the wave, transversality of the profile as a connection in the traveling-wave ODE, and hyperbolic stability of the associated Chapman–Jouguet (square-wave) approximation. Notably, our results apply to combustion waves of any type: weak or strong, detonations or deflagrations, reducing the study of stability to verification of a readily numerically checkable Evans function condition. Together with spectral results of Lyng and Zumbrun, this gives immediately stability of small-amplitude strong detonations in the small heat-release (i.e., fluid-dynamical) limit, simplifying and greatly extending previous results obtained by energy methods by Liu–Ying and Tesei–Tan for Majda's model and the reactive Navier–Stokes equations, respectively.</t>
   </si>
 </sst>
 </file>
@@ -928,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA33E8E0-0481-A641-A47B-DA1BFBE0C4BE}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1120,6 +1135,29 @@
         <v>34</v>
       </c>
     </row>
+    <row r="9" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>39034</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" xr:uid="{D0A0C61E-15DD-FA43-99D5-34403B9ED611}"/>

--- a/markdown_generator/pubs.xlsx
+++ b/markdown_generator/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glyng/code/gdl1314.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905E20DA-3317-7C4D-ACB3-8F7B424B843E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878D4F0B-4A63-6541-8E97-BE6248E3ADD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14400" xr2:uid="{DE440F00-E26D-1548-82D1-33E119D965A6}"/>
   </bookViews>
@@ -534,25 +534,25 @@
     </r>
   </si>
   <si>
+    <t>Gregory Lyng, Mohammadreza Raoofi, Benjamin Texier, &amp; Kevin Zumbrun, Pointwise Green function bounds and the stability of combustion waves. Journal of Differential Equations, 233 (2007): 654–698.</t>
+  </si>
+  <si>
+    <t>Journal of Differential Equations</t>
+  </si>
+  <si>
+    <t>Pointwise Green function bounds and the stability of combustion waves</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jde.2006.10.006</t>
+  </si>
+  <si>
+    <t>Generalizing similar results for viscous shock and relaxation waves, we establish sharp pointwise Green function bounds and linearized and nonlinear stability for traveling wave solutions of an abstract viscous combustion model including both Majda's model and the full reacting compressible Navier–Stokes equations with artificial viscosity with general multi-species reaction and reaction-dependent equation of state, under the necessary conditions of strong spectral stability, i.e., stable point spectrum of the linearized operator about the wave, transversality of the profile as a connection in the traveling-wave ODE, and hyperbolic stability of the associated Chapman–Jouguet (square-wave) approximation. Notably, our results apply to combustion waves of any type: weak or strong, detonations or deflagrations, reducing the study of stability to verification of a readily numerically checkable Evans function condition. Together with spectral results of Lyng and Zumbrun, this gives immediately stability of small-amplitude strong detonations in the small heat-release (i.e., fluid-dynamical) limit, simplifying and greatly extending previous results obtained by energy methods by Liu–Ying and Tesei–Tan for Majda's model and the reactive Navier–Stokes equations, respectively.</t>
+  </si>
+  <si>
     <t>The rigorous study of spectral stability for ZND detonations was begun by J.J. Erpenbeck. He used a normal mode analysis to define a stability function $V (\lambda, \eta)$, whose zeros in $\Re\lambda &gt; 0$ correspond to multidimensional perturbations of a steady planar profile that grow exponentially with time. Later, he was able to prove that for large classes of steady ZND profiles, unstable zeros of $V$ always exist in the high-frequency regime, even when the von Neumann shock, regarded as a gas dynamical shock, is uniformly stable in the sense (later) defined by Majda; subsequent numerical work has shown that unstable zeros usually exist in the medium frequency regime as well.
 In this paper we begin a rigorous study of the implications for non-linear stability of the spectral instabilities just described. We show that in spite of the existence of unstable zeros of $V$, one can prove the finite (but arbitrarily long) time existence of slightly curved, non-steady, multidimensional detonation fronts for ideal polytropic gases in both the ZND and Chapman-Jouguet models. In the ZND case we show that this nonlinear stability problem is actually governed by
-a different stability function, $\Delta_{\mathrm{ZND}}((\hat\lambdaλ, \hat\eta)$, which turns out to coincide with the high frequency limit of $V (\lambda, \eta)/|\lambda, \eta|$ in $\Re\hat\lambda &gt; 0$. Moreover, the above nonlinear stability result for ideal polytropic gases holds more generally in any situation where $\Delta_{\mathrm{ZND}}(\hat\lambda,\hat\eta)$ is bounded away
+a different stability function, $\Delta_{\mathrm{ZND}}((\hat\lambdaλ, \hat\eta)$, which turns out to coincide with the high frequency limit of a scaled version of $V (\lambda, \eta)$ in $\Re\hat\lambda &gt; 0$. Moreover, the above nonlinear stability result for ideal polytropic gases holds more generally in any situation where $\Delta_{\mathrm{ZND}}(\hat\lambda,\hat\eta)$ is bounded away
 from zero in $\Re\hat\lambda &gt; 0$. We also revisit Erpenbeck's arguments in order to simplify and complete some of the analysis in the proof of his main result.</t>
-  </si>
-  <si>
-    <t>Gregory Lyng, Mohammadreza Raoofi, Benjamin Texier, &amp; Kevin Zumbrun, Pointwise Green function bounds and the stability of combustion waves. Journal of Differential Equations, 233 (2007): 654–698.</t>
-  </si>
-  <si>
-    <t>Journal of Differential Equations</t>
-  </si>
-  <si>
-    <t>Pointwise Green function bounds and the stability of combustion waves</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.jde.2006.10.006</t>
-  </si>
-  <si>
-    <t>Generalizing similar results for viscous shock and relaxation waves, we establish sharp pointwise Green function bounds and linearized and nonlinear stability for traveling wave solutions of an abstract viscous combustion model including both Majda's model and the full reacting compressible Navier–Stokes equations with artificial viscosity with general multi-species reaction and reaction-dependent equation of state, under the necessary conditions of strong spectral stability, i.e., stable point spectrum of the linearized operator about the wave, transversality of the profile as a connection in the traveling-wave ODE, and hyperbolic stability of the associated Chapman–Jouguet (square-wave) approximation. Notably, our results apply to combustion waves of any type: weak or strong, detonations or deflagrations, reducing the study of stability to verification of a readily numerically checkable Evans function condition. Together with spectral results of Lyng and Zumbrun, this gives immediately stability of small-amplitude strong detonations in the small heat-release (i.e., fluid-dynamical) limit, simplifying and greatly extending previous results obtained by energy methods by Liu–Ying and Tesei–Tan for Majda's model and the reactive Navier–Stokes equations, respectively.</t>
   </si>
 </sst>
 </file>
@@ -945,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA33E8E0-0481-A641-A47B-DA1BFBE0C4BE}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1123,7 +1123,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>32</v>
@@ -1140,22 +1140,22 @@
         <v>39034</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
         <v>40</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/markdown_generator/pubs.xlsx
+++ b/markdown_generator/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glyng/code/gdl1314.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878D4F0B-4A63-6541-8E97-BE6248E3ADD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73A2E6C-37BD-7D43-ABA9-03CA0B23B9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14400" xr2:uid="{DE440F00-E26D-1548-82D1-33E119D965A6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>pub_date</t>
   </si>
@@ -553,6 +553,18 @@
 In this paper we begin a rigorous study of the implications for non-linear stability of the spectral instabilities just described. We show that in spite of the existence of unstable zeros of $V$, one can prove the finite (but arbitrarily long) time existence of slightly curved, non-steady, multidimensional detonation fronts for ideal polytropic gases in both the ZND and Chapman-Jouguet models. In the ZND case we show that this nonlinear stability problem is actually governed by
 a different stability function, $\Delta_{\mathrm{ZND}}((\hat\lambdaλ, \hat\eta)$, which turns out to coincide with the high frequency limit of a scaled version of $V (\lambda, \eta)$ in $\Re\hat\lambda &gt; 0$. Moreover, the above nonlinear stability result for ideal polytropic gases holds more generally in any situation where $\Delta_{\mathrm{ZND}}(\hat\lambda,\hat\eta)$ is bounded away
 from zero in $\Re\hat\lambda &gt; 0$. We also revisit Erpenbeck's arguments in order to simplify and complete some of the analysis in the proof of his main result.</t>
+  </si>
+  <si>
+    <t>Jeffrey Humpherys, Gregory Lyng, &amp; Kevin Zumbrun, Spectral stability of ideal-gas shock layers. Archive for Rational Mechanics and Analysis, 194 (2009): 1029–1079.</t>
+  </si>
+  <si>
+    <t>Spectral stability of ideal-gas shock layers</t>
+  </si>
+  <si>
+    <t>https://dx.doi.org/10.1007/s00205-008-0195-4</t>
+  </si>
+  <si>
+    <t>Extending recent results in the isentropic case, we use a combination of asymptotic ODE estimates and numerical Evans-function computations to examine the spectral stability of shock-wave solutions of the compressible Navier–Stokes equations with ideal gas equation of state. Our main results are that, in appropriately rescaled coordinates, the Evans function associated with the linearized operator about the wave (i) converges in the large-amplitude limit to the Evans function for a limiting shock profile of the same equations, for which internal energy vanishes at one end state; and (ii) has no unstable (positive real part) zeros outside a uniform ball. Thus, the rescaled eigenvalue ODE for the set of all shock waves, augmented with the (nonphysical) limiting case, form a compact family of boundary-value problems that can be conveniently investigated numerically. An extensive numerical Evans-function study yields one-dimensional spectral stability, independent of amplitude, for gas constant $\gamma$ in [1.2, 3] and ratio $\nu/\mu$ of heat conduction to viscosity coefficient within [0.2, 5] ($\gamma \approx 1.4$, $\nu/\mu \approx 1.47$ for air). Other values may be treated similarly but were not considered. The method of analysis extends also to the multi-dimensional case, a direction that we shall pursue in a future work.</t>
   </si>
 </sst>
 </file>
@@ -943,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA33E8E0-0481-A641-A47B-DA1BFBE0C4BE}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1158,6 +1170,29 @@
         <v>40</v>
       </c>
     </row>
+    <row r="10" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>39779</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" xr:uid="{D0A0C61E-15DD-FA43-99D5-34403B9ED611}"/>

--- a/markdown_generator/pubs.xlsx
+++ b/markdown_generator/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glyng/code/gdl1314.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73A2E6C-37BD-7D43-ABA9-03CA0B23B9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B1DCE1-0128-3248-BCC9-1DC9E7C6382A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14400" xr2:uid="{DE440F00-E26D-1548-82D1-33E119D965A6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>pub_date</t>
   </si>
@@ -565,6 +565,18 @@
   </si>
   <si>
     <t>Extending recent results in the isentropic case, we use a combination of asymptotic ODE estimates and numerical Evans-function computations to examine the spectral stability of shock-wave solutions of the compressible Navier–Stokes equations with ideal gas equation of state. Our main results are that, in appropriately rescaled coordinates, the Evans function associated with the linearized operator about the wave (i) converges in the large-amplitude limit to the Evans function for a limiting shock profile of the same equations, for which internal energy vanishes at one end state; and (ii) has no unstable (positive real part) zeros outside a uniform ball. Thus, the rescaled eigenvalue ODE for the set of all shock waves, augmented with the (nonphysical) limiting case, form a compact family of boundary-value problems that can be conveniently investigated numerically. An extensive numerical Evans-function study yields one-dimensional spectral stability, independent of amplitude, for gas constant $\gamma$ in [1.2, 3] and ratio $\nu/\mu$ of heat conduction to viscosity coefficient within [0.2, 5] ($\gamma \approx 1.4$, $\nu/\mu \approx 1.47$ for air). Other values may be treated similarly but were not considered. The method of analysis extends also to the multi-dimensional case, a direction that we shall pursue in a future work.</t>
+  </si>
+  <si>
+    <t>Long Lee, Gregory Lyng, &amp; Irena Vankova, The Gaussian semiclassical soliton ensemble and numerical methods for the focusing nonlinear Schrödinger equation. Physica D, 241 (2012): 1767–1781.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Gaussian semiclassical soliton ensemble and numerical methods for the focusing nonlinear Schrödinger equation</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.physd.2012.08.006</t>
+  </si>
+  <si>
+    <t>We report on a number of careful numerical experiments motivated by the semiclassical (zero-dispersion, $\epsilon\downarrow 0$ ) limit of the focusing nonlinear Schrödinger equation. Our experiments are designed to study the evolution of a particular family of perturbations of the initial data. These asymptotically small perturbations are precisely those that result from modifying the initial-data by using formal approximations to the spectrum of the associated spectral problem; such modified data has always been a standard part of the analysis of zero-dispersion limits of integrable systems. However, in the context of the focusing nonlinear Schrödinger equation, the ellipticity of the Whitham equations casts some doubt on the validity of this procedure. To carry out our experiments, we introduce an implicit finite difference scheme for the partial differential equation, and we validate both the proposed scheme and the standard split-step scheme against a numerical implementation of the inverse scattering transform for a special case in which the scattering data is known exactly. As part of this validation, we also investigate the use of the Krasny filter which is sometimes suggested as appropriate for nearly ill-posed problems such as we consider here. Our experiments show that that the $O(\epsilon)$ rate of convergence of the modified data to the true data is propagated to positive times including times after wave breaking.</t>
   </si>
 </sst>
 </file>
@@ -955,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA33E8E0-0481-A641-A47B-DA1BFBE0C4BE}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1193,6 +1205,29 @@
         <v>45</v>
       </c>
     </row>
+    <row r="11" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>41135</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" xr:uid="{D0A0C61E-15DD-FA43-99D5-34403B9ED611}"/>
